--- a/Canada411Input.xlsx
+++ b/Canada411Input.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAPractise\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\metlifews\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106B0EA-217D-4913-A74A-EB621161147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,8 +549,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,67 +921,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,7 +1006,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1028,6 +1028,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD7F7A7EF585448B48D0C2488F47AD2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e3f7292607a2822c193495168e516a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6833666c-886a-42d0-bc9c-83af8f222559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36efe3890a49755390aaf87eb97bd9c2" ns2:_="">
     <xsd:import namespace="6833666c-886a-42d0-bc9c-83af8f222559"/>
@@ -1189,22 +1204,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC32FDD-A88E-4872-9D27-3381E671491A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D269DEF-D0BB-4F9C-886C-E5185662B840}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F148A08B-2337-4C03-83CF-8C9B092AB64C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1220,21 +1237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D269DEF-D0BB-4F9C-886C-E5185662B840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC32FDD-A88E-4872-9D27-3381E671491A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>